--- a/target/test-classes/testData/TestData.xlsx
+++ b/target/test-classes/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -679,10 +679,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId30"/>
-    <hyperlink ref="M2" r:id="rId31"/>
-    <hyperlink ref="C3" r:id="rId32"/>
-    <hyperlink ref="M3" r:id="rId33"/>
+    <hyperlink ref="C2" r:id="rId38"/>
+    <hyperlink ref="M2" r:id="rId39"/>
+    <hyperlink ref="C3" r:id="rId40"/>
+    <hyperlink ref="M3" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
